--- a/Model/BayesLSTM/Univariate/result/Service/IND.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/IND.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>47.36123275756836</v>
+        <v>44.97320175170898</v>
       </c>
       <c r="C2" t="n">
-        <v>43.49096298217773</v>
+        <v>42.28748321533203</v>
       </c>
       <c r="D2" t="n">
-        <v>51.23150253295898</v>
+        <v>47.65892028808594</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>46.71848297119141</v>
+        <v>44.2175178527832</v>
       </c>
       <c r="C3" t="n">
-        <v>41.35174179077148</v>
+        <v>41.30020904541016</v>
       </c>
       <c r="D3" t="n">
-        <v>52.08522415161133</v>
+        <v>47.13482666015625</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>46.85591888427734</v>
+        <v>43.5840950012207</v>
       </c>
       <c r="C4" t="n">
-        <v>41.4421272277832</v>
+        <v>41.22580337524414</v>
       </c>
       <c r="D4" t="n">
-        <v>52.26971054077148</v>
+        <v>45.94238662719727</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>47.10747909545898</v>
+        <v>43.59104537963867</v>
       </c>
       <c r="C5" t="n">
-        <v>41.59080505371094</v>
+        <v>40.64762496948242</v>
       </c>
       <c r="D5" t="n">
-        <v>52.62415313720703</v>
+        <v>46.53446578979492</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>47.38764572143555</v>
+        <v>43.23717880249023</v>
       </c>
       <c r="C6" t="n">
-        <v>41.33175659179688</v>
+        <v>40.04750061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>53.44353485107422</v>
+        <v>46.42685699462891</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>47.56559371948242</v>
+        <v>43.51924514770508</v>
       </c>
       <c r="C7" t="n">
-        <v>42.17041778564453</v>
+        <v>39.67900848388672</v>
       </c>
       <c r="D7" t="n">
-        <v>52.96076965332031</v>
+        <v>47.35948181152344</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>47.87583923339844</v>
+        <v>43.48680114746094</v>
       </c>
       <c r="C8" t="n">
-        <v>43.93124771118164</v>
+        <v>40.09329986572266</v>
       </c>
       <c r="D8" t="n">
-        <v>51.82043075561523</v>
+        <v>46.88030242919922</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>47.5964469909668</v>
+        <v>43.30102157592773</v>
       </c>
       <c r="C9" t="n">
-        <v>43.60865020751953</v>
+        <v>40.77131271362305</v>
       </c>
       <c r="D9" t="n">
-        <v>51.58424377441406</v>
+        <v>45.83073043823242</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>47.64024353027344</v>
+        <v>43.55572509765625</v>
       </c>
       <c r="C10" t="n">
-        <v>43.29353332519531</v>
+        <v>40.24857711791992</v>
       </c>
       <c r="D10" t="n">
-        <v>51.98695373535156</v>
+        <v>46.86287307739258</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>47.56975173950195</v>
+        <v>43.30449676513672</v>
       </c>
       <c r="C11" t="n">
-        <v>43.46327972412109</v>
+        <v>40.34258270263672</v>
       </c>
       <c r="D11" t="n">
-        <v>51.67622375488281</v>
+        <v>46.26641082763672</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>47.63115692138672</v>
+        <v>43.86518859863281</v>
       </c>
       <c r="C12" t="n">
-        <v>43.33757019042969</v>
+        <v>40.35320663452148</v>
       </c>
       <c r="D12" t="n">
-        <v>51.92474365234375</v>
+        <v>47.37717056274414</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>47.27141571044922</v>
+        <v>43.71516799926758</v>
       </c>
       <c r="C13" t="n">
-        <v>42.35420608520508</v>
+        <v>40.8175163269043</v>
       </c>
       <c r="D13" t="n">
-        <v>52.18862533569336</v>
+        <v>46.61281967163086</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>47.34749221801758</v>
+        <v>43.77442932128906</v>
       </c>
       <c r="C14" t="n">
-        <v>42.75457763671875</v>
+        <v>41.06764984130859</v>
       </c>
       <c r="D14" t="n">
-        <v>51.94040679931641</v>
+        <v>46.48120880126953</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>46.82809066772461</v>
+        <v>43.60036468505859</v>
       </c>
       <c r="C15" t="n">
-        <v>41.21516418457031</v>
+        <v>40.79110336303711</v>
       </c>
       <c r="D15" t="n">
-        <v>52.44101715087891</v>
+        <v>46.40962600708008</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>47.24766540527344</v>
+        <v>43.6662483215332</v>
       </c>
       <c r="C16" t="n">
-        <v>43.58839416503906</v>
+        <v>41.35899353027344</v>
       </c>
       <c r="D16" t="n">
-        <v>50.90693664550781</v>
+        <v>45.97350311279297</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>47.19394302368164</v>
+        <v>43.72228240966797</v>
       </c>
       <c r="C17" t="n">
-        <v>42.18410491943359</v>
+        <v>40.98797607421875</v>
       </c>
       <c r="D17" t="n">
-        <v>52.20378112792969</v>
+        <v>46.45658874511719</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>47.21328353881836</v>
+        <v>43.60367965698242</v>
       </c>
       <c r="C18" t="n">
-        <v>42.53089141845703</v>
+        <v>41.05812835693359</v>
       </c>
       <c r="D18" t="n">
-        <v>51.89567565917969</v>
+        <v>46.14923095703125</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>46.59880447387695</v>
+        <v>44.07057952880859</v>
       </c>
       <c r="C19" t="n">
-        <v>40.87692260742188</v>
+        <v>41.92629623413086</v>
       </c>
       <c r="D19" t="n">
-        <v>52.32068634033203</v>
+        <v>46.21486282348633</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>47.64437103271484</v>
+        <v>44.0382194519043</v>
       </c>
       <c r="C20" t="n">
-        <v>42.60998916625977</v>
+        <v>41.95623016357422</v>
       </c>
       <c r="D20" t="n">
-        <v>52.67875289916992</v>
+        <v>46.12020874023438</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>47.55808258056641</v>
+        <v>44.05629348754883</v>
       </c>
       <c r="C21" t="n">
-        <v>41.77249908447266</v>
+        <v>41.29641723632812</v>
       </c>
       <c r="D21" t="n">
-        <v>53.34366607666016</v>
+        <v>46.81616973876953</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>47.9246826171875</v>
+        <v>43.94306182861328</v>
       </c>
       <c r="C22" t="n">
-        <v>43.44866180419922</v>
+        <v>41.26575469970703</v>
       </c>
       <c r="D22" t="n">
-        <v>52.40070343017578</v>
+        <v>46.62036895751953</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>47.66379165649414</v>
+        <v>43.42656707763672</v>
       </c>
       <c r="C23" t="n">
-        <v>43.06385040283203</v>
+        <v>40.94376373291016</v>
       </c>
       <c r="D23" t="n">
-        <v>52.26373291015625</v>
+        <v>45.90937042236328</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>47.32406234741211</v>
+        <v>43.50031280517578</v>
       </c>
       <c r="C24" t="n">
-        <v>42.19236755371094</v>
+        <v>40.91662216186523</v>
       </c>
       <c r="D24" t="n">
-        <v>52.45575714111328</v>
+        <v>46.08400344848633</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>47.18976593017578</v>
+        <v>43.42363739013672</v>
       </c>
       <c r="C25" t="n">
-        <v>42.26442718505859</v>
+        <v>40.57046890258789</v>
       </c>
       <c r="D25" t="n">
-        <v>52.11510467529297</v>
+        <v>46.27680587768555</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>47.32709503173828</v>
+        <v>43.3493537902832</v>
       </c>
       <c r="C26" t="n">
-        <v>43.10797882080078</v>
+        <v>40.02223205566406</v>
       </c>
       <c r="D26" t="n">
-        <v>51.54621124267578</v>
+        <v>46.67647552490234</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>47.15747451782227</v>
+        <v>43.16370010375977</v>
       </c>
       <c r="C27" t="n">
-        <v>42.10812759399414</v>
+        <v>40.0863151550293</v>
       </c>
       <c r="D27" t="n">
-        <v>52.20682144165039</v>
+        <v>46.24108505249023</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>47.44571685791016</v>
+        <v>43.3975715637207</v>
       </c>
       <c r="C28" t="n">
-        <v>43.29797744750977</v>
+        <v>40.77225112915039</v>
       </c>
       <c r="D28" t="n">
-        <v>51.59345626831055</v>
+        <v>46.02289199829102</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>47.68166732788086</v>
+        <v>43.44925308227539</v>
       </c>
       <c r="C29" t="n">
-        <v>43.30068969726562</v>
+        <v>40.73781967163086</v>
       </c>
       <c r="D29" t="n">
-        <v>52.06264495849609</v>
+        <v>46.16068649291992</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>48.0146484375</v>
+        <v>43.28002166748047</v>
       </c>
       <c r="C30" t="n">
-        <v>43.45206451416016</v>
+        <v>39.70703506469727</v>
       </c>
       <c r="D30" t="n">
-        <v>52.57723236083984</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>48.10898590087891</v>
-      </c>
-      <c r="C31" t="n">
-        <v>43.21960067749023</v>
-      </c>
-      <c r="D31" t="n">
-        <v>52.99837112426758</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>47.56221389770508</v>
-      </c>
-      <c r="C32" t="n">
-        <v>41.82537078857422</v>
-      </c>
-      <c r="D32" t="n">
-        <v>53.29905700683594</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>47.85860443115234</v>
-      </c>
-      <c r="C33" t="n">
-        <v>42.80767822265625</v>
-      </c>
-      <c r="D33" t="n">
-        <v>52.90953063964844</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>47.73674011230469</v>
-      </c>
-      <c r="C34" t="n">
-        <v>42.7274284362793</v>
-      </c>
-      <c r="D34" t="n">
-        <v>52.74605178833008</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>47.71374130249023</v>
-      </c>
-      <c r="C35" t="n">
-        <v>42.2620964050293</v>
-      </c>
-      <c r="D35" t="n">
-        <v>53.16538619995117</v>
+        <v>46.85300827026367</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>44.26331291198731</v>
+        <v>43.35788345336914</v>
       </c>
       <c r="C2" t="n">
-        <v>42.34361749653961</v>
+        <v>40.39189147949219</v>
       </c>
       <c r="D2" t="n">
-        <v>46.183008327435</v>
+        <v>46.32387542724609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>47.41730155944824</v>
+        <v>43.74939727783203</v>
       </c>
       <c r="C3" t="n">
-        <v>45.35699258224957</v>
+        <v>40.72403335571289</v>
       </c>
       <c r="D3" t="n">
-        <v>49.47761053664691</v>
+        <v>46.77476119995117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>45.08699569702149</v>
+        <v>43.64868545532227</v>
       </c>
       <c r="C4" t="n">
-        <v>41.90460310489612</v>
+        <v>40.07218551635742</v>
       </c>
       <c r="D4" t="n">
-        <v>48.26938828914685</v>
+        <v>47.22518539428711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>40.35068244934082</v>
+        <v>43.85719299316406</v>
       </c>
       <c r="C5" t="n">
-        <v>38.56069820850751</v>
+        <v>39.99273300170898</v>
       </c>
       <c r="D5" t="n">
-        <v>42.14066669017414</v>
+        <v>47.72165298461914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>47.33332328796386</v>
+        <v>43.96081161499023</v>
       </c>
       <c r="C6" t="n">
-        <v>43.38682235774323</v>
+        <v>40.40932083129883</v>
       </c>
       <c r="D6" t="n">
-        <v>51.27982421818449</v>
+        <v>47.51230239868164</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>40.50215911865234</v>
+        <v>41.38269805908203</v>
       </c>
       <c r="C2" t="n">
-        <v>37.43090057373047</v>
+        <v>37.75315856933594</v>
       </c>
       <c r="D2" t="n">
-        <v>43.57341766357422</v>
+        <v>45.01223754882812</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>41.33854675292969</v>
+        <v>41.06289291381836</v>
       </c>
       <c r="C3" t="n">
-        <v>37.98134231567383</v>
+        <v>38.17677307128906</v>
       </c>
       <c r="D3" t="n">
-        <v>44.69575119018555</v>
+        <v>43.94901275634766</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>41.29698181152344</v>
+        <v>41.17467498779297</v>
       </c>
       <c r="C4" t="n">
-        <v>37.901611328125</v>
+        <v>38.39046859741211</v>
       </c>
       <c r="D4" t="n">
-        <v>44.69235229492188</v>
+        <v>43.95888137817383</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>41.54598236083984</v>
+        <v>41.62960052490234</v>
       </c>
       <c r="C5" t="n">
-        <v>37.79726409912109</v>
+        <v>39.5457649230957</v>
       </c>
       <c r="D5" t="n">
-        <v>45.29470062255859</v>
+        <v>43.71343612670898</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>41.49928665161133</v>
+        <v>41.23054122924805</v>
       </c>
       <c r="C6" t="n">
-        <v>37.26239395141602</v>
+        <v>39.2553825378418</v>
       </c>
       <c r="D6" t="n">
-        <v>45.73617935180664</v>
+        <v>43.2056999206543</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>41.31423950195312</v>
+        <v>41.40446853637695</v>
       </c>
       <c r="C7" t="n">
-        <v>37.92633056640625</v>
+        <v>39.7337646484375</v>
       </c>
       <c r="D7" t="n">
-        <v>44.7021484375</v>
+        <v>43.07517242431641</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>41.53694915771484</v>
+        <v>40.92819976806641</v>
       </c>
       <c r="C8" t="n">
-        <v>38.03939819335938</v>
+        <v>38.86326217651367</v>
       </c>
       <c r="D8" t="n">
-        <v>45.03450012207031</v>
+        <v>42.99313735961914</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>41.38822555541992</v>
+        <v>40.96562957763672</v>
       </c>
       <c r="C9" t="n">
-        <v>37.19972991943359</v>
+        <v>39.30078887939453</v>
       </c>
       <c r="D9" t="n">
-        <v>45.57672119140625</v>
+        <v>42.63047027587891</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>41.19260787963867</v>
+        <v>40.99411773681641</v>
       </c>
       <c r="C10" t="n">
-        <v>37.34682464599609</v>
+        <v>38.92392349243164</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03839111328125</v>
+        <v>43.06431198120117</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>41.63996887207031</v>
+        <v>40.89675521850586</v>
       </c>
       <c r="C11" t="n">
-        <v>37.53522872924805</v>
+        <v>38.79167556762695</v>
       </c>
       <c r="D11" t="n">
-        <v>45.74470901489258</v>
+        <v>43.00183486938477</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>41.19533538818359</v>
+        <v>40.9078369140625</v>
       </c>
       <c r="C12" t="n">
-        <v>37.63606643676758</v>
+        <v>38.75864410400391</v>
       </c>
       <c r="D12" t="n">
-        <v>44.75460433959961</v>
+        <v>43.05702972412109</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>41.40951538085938</v>
+        <v>41.02959060668945</v>
       </c>
       <c r="C13" t="n">
-        <v>37.05507278442383</v>
+        <v>39.52315521240234</v>
       </c>
       <c r="D13" t="n">
-        <v>45.76395797729492</v>
+        <v>42.53602600097656</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>40.82998275756836</v>
+        <v>40.81784439086914</v>
       </c>
       <c r="C14" t="n">
-        <v>36.60050964355469</v>
+        <v>38.49619674682617</v>
       </c>
       <c r="D14" t="n">
-        <v>45.05945587158203</v>
+        <v>43.13949203491211</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0994758605957</v>
+        <v>41.0477294921875</v>
       </c>
       <c r="C15" t="n">
-        <v>36.47636413574219</v>
+        <v>38.50985336303711</v>
       </c>
       <c r="D15" t="n">
-        <v>45.72258758544922</v>
+        <v>43.58560562133789</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>41.16425704956055</v>
+        <v>41.45808410644531</v>
       </c>
       <c r="C16" t="n">
-        <v>37.34404373168945</v>
+        <v>38.629638671875</v>
       </c>
       <c r="D16" t="n">
-        <v>44.98447036743164</v>
+        <v>44.28652954101562</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>41.35969543457031</v>
+        <v>41.53048706054688</v>
       </c>
       <c r="C17" t="n">
-        <v>37.15216827392578</v>
+        <v>39.67464828491211</v>
       </c>
       <c r="D17" t="n">
-        <v>45.56722259521484</v>
+        <v>43.38632583618164</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>40.9034309387207</v>
+        <v>41.99540328979492</v>
       </c>
       <c r="C18" t="n">
-        <v>37.07524108886719</v>
+        <v>39.25075149536133</v>
       </c>
       <c r="D18" t="n">
-        <v>44.73162078857422</v>
+        <v>44.74005508422852</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>41.20954132080078</v>
+        <v>41.62683868408203</v>
       </c>
       <c r="C19" t="n">
-        <v>36.03033447265625</v>
+        <v>39.48577880859375</v>
       </c>
       <c r="D19" t="n">
-        <v>46.38874816894531</v>
+        <v>43.76789855957031</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>40.90181732177734</v>
+        <v>40.90668487548828</v>
       </c>
       <c r="C20" t="n">
-        <v>37.15061187744141</v>
+        <v>38.36624145507812</v>
       </c>
       <c r="D20" t="n">
-        <v>44.65302276611328</v>
+        <v>43.44712829589844</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>40.49970626831055</v>
+        <v>41.41444778442383</v>
       </c>
       <c r="C21" t="n">
-        <v>36.98359680175781</v>
+        <v>39.12564468383789</v>
       </c>
       <c r="D21" t="n">
-        <v>44.01581573486328</v>
+        <v>43.70325088500977</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>41.26775741577148</v>
+        <v>42.02357482910156</v>
       </c>
       <c r="C22" t="n">
-        <v>37.59006500244141</v>
+        <v>39.61968231201172</v>
       </c>
       <c r="D22" t="n">
-        <v>44.94544982910156</v>
+        <v>44.42746734619141</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>41.14392852783203</v>
+        <v>41.69365692138672</v>
       </c>
       <c r="C23" t="n">
-        <v>37.6495361328125</v>
+        <v>38.75124740600586</v>
       </c>
       <c r="D23" t="n">
-        <v>44.63832092285156</v>
+        <v>44.63606643676758</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>41.07745742797852</v>
+        <v>41.0158576965332</v>
       </c>
       <c r="C24" t="n">
-        <v>36.38557052612305</v>
+        <v>37.97969818115234</v>
       </c>
       <c r="D24" t="n">
-        <v>45.76934432983398</v>
+        <v>44.05201721191406</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>41.14162445068359</v>
+        <v>41.52188110351562</v>
       </c>
       <c r="C25" t="n">
-        <v>36.82070922851562</v>
+        <v>38.3961067199707</v>
       </c>
       <c r="D25" t="n">
-        <v>45.46253967285156</v>
+        <v>44.64765548706055</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>41.21236419677734</v>
+        <v>41.28408432006836</v>
       </c>
       <c r="C26" t="n">
-        <v>37.60177230834961</v>
+        <v>38.23939895629883</v>
       </c>
       <c r="D26" t="n">
-        <v>44.82295608520508</v>
+        <v>44.32876968383789</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>41.11544036865234</v>
+        <v>41.7695426940918</v>
       </c>
       <c r="C27" t="n">
-        <v>36.89377593994141</v>
+        <v>39.62579345703125</v>
       </c>
       <c r="D27" t="n">
-        <v>45.33710479736328</v>
+        <v>43.91329193115234</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>41.22094345092773</v>
+        <v>41.34835815429688</v>
       </c>
       <c r="C28" t="n">
-        <v>37.10948944091797</v>
+        <v>38.92021560668945</v>
       </c>
       <c r="D28" t="n">
-        <v>45.3323974609375</v>
+        <v>43.7765007019043</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>41.08219146728516</v>
+        <v>41.27512741088867</v>
       </c>
       <c r="C29" t="n">
-        <v>37.69913864135742</v>
+        <v>38.35939407348633</v>
       </c>
       <c r="D29" t="n">
-        <v>44.46524429321289</v>
+        <v>44.19086074829102</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>41.74495315551758</v>
+        <v>41.90218353271484</v>
       </c>
       <c r="C30" t="n">
-        <v>37.03067398071289</v>
+        <v>39.5060920715332</v>
       </c>
       <c r="D30" t="n">
-        <v>46.45923233032227</v>
+        <v>44.29827499389648</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>41.53131484985352</v>
+        <v>42.30459594726562</v>
       </c>
       <c r="C31" t="n">
-        <v>38.07121658325195</v>
+        <v>39.59049224853516</v>
       </c>
       <c r="D31" t="n">
-        <v>44.99141311645508</v>
+        <v>45.01869964599609</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>41.26998519897461</v>
+        <v>41.9436149597168</v>
       </c>
       <c r="C32" t="n">
-        <v>37.34130477905273</v>
+        <v>39.08692932128906</v>
       </c>
       <c r="D32" t="n">
-        <v>45.19866561889648</v>
+        <v>44.80030059814453</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>41.57791137695312</v>
+        <v>41.62267303466797</v>
       </c>
       <c r="C33" t="n">
-        <v>37.05794525146484</v>
+        <v>38.41075897216797</v>
       </c>
       <c r="D33" t="n">
-        <v>46.09787750244141</v>
+        <v>44.83458709716797</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>41.57644271850586</v>
+        <v>41.47502517700195</v>
       </c>
       <c r="C34" t="n">
-        <v>37.77201080322266</v>
+        <v>38.86450958251953</v>
       </c>
       <c r="D34" t="n">
-        <v>45.38087463378906</v>
+        <v>44.08554077148438</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>41.82569122314453</v>
+        <v>41.46248245239258</v>
       </c>
       <c r="C35" t="n">
-        <v>37.84283065795898</v>
+        <v>39.14385986328125</v>
       </c>
       <c r="D35" t="n">
-        <v>45.80855178833008</v>
+        <v>43.78110504150391</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>43.22983016967773</v>
+        <v>41.50345764160156</v>
       </c>
       <c r="C2" t="n">
-        <v>41.43081537166751</v>
+        <v>38.88915599427131</v>
       </c>
       <c r="D2" t="n">
-        <v>45.02884496768795</v>
+        <v>44.11775928893182</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>39.72317123413086</v>
+        <v>44.09198570251465</v>
       </c>
       <c r="C3" t="n">
-        <v>36.56077782210762</v>
+        <v>41.90850549866514</v>
       </c>
       <c r="D3" t="n">
-        <v>42.8855646461541</v>
+        <v>46.27546590636415</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>43.48744277954101</v>
+        <v>42.18160858154297</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77595639025004</v>
+        <v>39.51246559566972</v>
       </c>
       <c r="D4" t="n">
-        <v>45.19892916883199</v>
+        <v>44.85075156741622</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>43.30425910949707</v>
+        <v>42.49903030395508</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00331847155433</v>
+        <v>40.57670912058739</v>
       </c>
       <c r="D5" t="n">
-        <v>45.6051997474398</v>
+        <v>44.42135148732277</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>40.45148735046386</v>
+        <v>41.59052696228027</v>
       </c>
       <c r="C6" t="n">
-        <v>36.19448182477488</v>
+        <v>38.98112270818469</v>
       </c>
       <c r="D6" t="n">
-        <v>44.70849287615285</v>
+        <v>44.19993121637586</v>
       </c>
     </row>
   </sheetData>
